--- a/FieldWorkChecklist.xlsx
+++ b/FieldWorkChecklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaylaemerson/Desktop/CurrituckCroatanCarbon2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E624F4-F217-D546-BDDF-82BCA825E151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED228DA-C6F1-DE4B-BC7C-ED69E68A03EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{2255382A-9567-E449-8D09-54FB9A91BE3C}"/>
   </bookViews>
@@ -666,7 +666,7 @@
   <dimension ref="A3:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FieldWorkChecklist.xlsx
+++ b/FieldWorkChecklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaylaemerson/Desktop/CurrituckCroatanCarbon2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED228DA-C6F1-DE4B-BC7C-ED69E68A03EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFE5BA79-42E5-5741-8CCF-BC3CC8659C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" activeTab="1" xr2:uid="{2255382A-9567-E449-8D09-54FB9A91BE3C}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16280" xr2:uid="{2255382A-9567-E449-8D09-54FB9A91BE3C}"/>
   </bookViews>
   <sheets>
     <sheet name="before" sheetId="1" r:id="rId1"/>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAAA7F34-97EA-0942-AFF3-63A139E82B3B}">
   <dimension ref="A2:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,8 +665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EC76F20-2959-4D40-A4C0-071A8340A7D4}">
   <dimension ref="A3:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
